--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Apps\NONIO-Inforestudante\Master in Informatics Engineering\2016 2017\1.º Semester\Machine Learning\ACOCRMatlabScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\Machine-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,8 +66,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -91,12 +99,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -377,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,324 +561,425 @@
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>37</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
         <v>28</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>25</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="9">
         <v>38</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7">
         <v>23</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>26</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="9">
         <v>27</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>27</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>19</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="9">
         <v>31</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>37</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>33</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7">
         <v>47</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>47</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3"/>
+      <c r="H9" s="9">
         <v>48</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>24</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>34</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7">
         <v>46</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>48</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="3"/>
+      <c r="H10" s="9">
         <v>42</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>29</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>28</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
         <v>45</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>45</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="3"/>
+      <c r="H11" s="9">
         <v>47</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
-        <f t="shared" ref="B13:G13" si="0">B5+B9</f>
+      <c r="B13" s="9">
+        <f t="shared" ref="B13:F13" si="0">B5+B9</f>
         <v>74</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="3"/>
+      <c r="H13" s="9">
         <f>H5+H9</f>
         <v>86</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <f>I5+I9</f>
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13">
+        <f>SUM(B13:J13)</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
-        <f t="shared" ref="B14:G14" si="1">B6+B10</f>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14:F14" si="1">B6+B10</f>
         <v>49</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="3"/>
+      <c r="H14" s="9">
         <f t="shared" ref="H14:I15" si="2">H6+H10</f>
         <v>69</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14">
+        <f t="shared" ref="K14:K15" si="3">SUM(B14:J14)</f>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
-        <f t="shared" ref="B15:G15" si="3">B7+B11</f>
+      <c r="B15" s="9">
+        <f t="shared" ref="B15:F15" si="4">B7+B11</f>
         <v>56</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
+      <c r="C15" s="7">
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7">
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
+      <c r="F15" s="9">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="3"/>
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17">
+      <c r="J15" s="3"/>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14">
         <f>B13+B14+B15</f>
         <v>179</v>
       </c>
-      <c r="C17">
-        <f t="shared" ref="C17:I17" si="4">C13+C14+C15</f>
+      <c r="C17" s="15">
+        <f t="shared" ref="C17:I17" si="5">C13+C14+C15</f>
         <v>188</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="19">
         <f>B17+C17</f>
         <v>367</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
+      <c r="E17" s="15">
+        <f t="shared" si="5"/>
         <v>213</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
+      <c r="F17" s="14">
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="18">
         <f>E17+F17</f>
         <v>423</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
+      <c r="H17" s="14">
+        <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
+      <c r="I17" s="14">
+        <f t="shared" si="5"/>
         <v>247</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="18">
         <f>H17+I17</f>
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>